--- a/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_13.11.2024_output.xlsx
+++ b/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,400 +505,5488 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731702066.7139454</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731702068.405788</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702066.7139454.png</t>
+          <t>1731870630.9203167</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702068.405788.png</t>
+          <t>1731870633.9161437</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731870630.9203167.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731870633.9161437.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2780.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2771.75</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>134.99</v>
       </c>
       <c r="L3" t="n">
-        <v>0.32</v>
+        <v>135.65</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.6599999999999966</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731702069.3668482</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1731702072.1718602</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702069.3668482.png</t>
+          <t>1731870634.3382597</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702072.1718602.png</t>
+          <t>1731870635.7324073</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/GAZP1731870634.3382597.png</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>2781.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2787.4</v>
+          <t>./test_images/GAZP1731870635.7324073.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>-5.5</v>
+        <v>135.63</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2</v>
+        <v>135.7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1731702073.2651515</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1731702074.6166656</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702073.2651515.png</t>
+          <t>1731870636.4104474</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702074.6166656.png</t>
+          <t>1731870637.5574856</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/GAZP1731870636.4104474.png</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2785.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2789.2</v>
+          <t>./test_images/GAZP1731870637.5574856.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>135.92</v>
       </c>
       <c r="L5" t="n">
-        <v>0.14</v>
+        <v>135.88</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1731702074.852006</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1731702075.3059561</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702074.852006.png</t>
+          <t>1731870638.220497</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702075.3059561.png</t>
+          <t>1731870641.057952</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/GAZP1731870638.220497.png</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2791.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2787.5</v>
+          <t>./test_images/GAZP1731870641.057952.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>3.699999999999818</v>
+        <v>135.7</v>
       </c>
       <c r="L6" t="n">
-        <v>0.13</v>
+        <v>135.55</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.1499999999999773</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1731702076.5655558</t>
-        </is>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1731702079.3290899</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702076.5655558.png</t>
+          <t>1731870644.283829</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702079.3290899.png</t>
+          <t>1731870648.7403471</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/GAZP1731870644.283829.png</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>2784.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2781</v>
+          <t>./test_images/GAZP1731870648.7403471.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>-3.199999999999818</v>
+        <v>135.72</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.11</v>
+        <v>136.09</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.3700000000000045</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1731702079.8406904</t>
-        </is>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1731702080.6989782</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702079.8406904.png</t>
+          <t>1731870651.1824012</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702080.6989782.png</t>
+          <t>1731870652.8614504</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731870651.1824012.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870652.8614504.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>2774.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2779</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>4.25</v>
+        <v>6988.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0.15</v>
+        <v>6991</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1731870653.1061018</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1731870654.3765578</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870653.1061018.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870654.3765578.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>6992.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6990</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1731870654.6635473</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1731870656.914971</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870654.6635473.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870656.914971.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>7000.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7011</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1731870662.786024</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1731870664.096635</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870662.786024.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870664.096635.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>7018</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7012</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1731870665.2291658</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1731870667.5202644</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870665.2291658.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870667.5202644.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>7025</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7025</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1731870669.8416884</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1731870674.6806948</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870669.8416884.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870674.6806948.png</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>486.45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>488</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1.550000000000011</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1731870677.1256778</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1731870678.2433097</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870677.1256778.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870678.2433097.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>487.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>488.25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5500000000000114</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1731870678.3440845</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1731870678.9839742</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870678.3440845.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870678.9839742.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>488.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>488.55</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.1500000000000341</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1731870680.165866</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1731870681.6320627</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870680.165866.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870681.6320627.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>489.45</v>
+      </c>
+      <c r="L16" t="n">
+        <v>489.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1731870682.7664769</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1731870683.6984499</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870682.7664769.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870683.6984499.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>490.9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>489.45</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.449999999999989</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731870684.152847</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1731870685.3855515</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870684.152847.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870685.3855515.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>488.8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>489.35</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5500000000000114</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731870688.358421</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870688.358421.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>491.55</v>
+      </c>
+      <c r="L19" t="n">
+        <v>493.35</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-1.800000000000011</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731870692.744303</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1731870694.1795805</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870692.744303.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870694.1795805.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>926.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>927</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.7999999999999545</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731870695.3767502</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1731870695.966446</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870695.3767502.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870695.966446.png</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>933.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>927.2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731870697.303139</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731870699.0764513</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870697.303139.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870699.0764513.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>927.8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>930.4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.600000000000023</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731870702.0200484</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1731870702.9083114</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870702.0200484.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870702.9083114.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>925.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>929.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.800000000000068</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731870706.5783858</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731870707.2019145</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870706.5783858.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870707.2019145.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>929.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>929.8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.1999999999999318</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731870709.4510689</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870709.4510689.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>934.4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>934.8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731870710.1561265</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1731870712.1575618</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870710.1561265.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870712.1575618.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="L26" t="n">
+        <v>37.755</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.02500000000000568</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731870712.6826293</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1731870713.8338168</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870712.6826293.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870713.8338168.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>37.905</v>
+      </c>
+      <c r="L27" t="n">
+        <v>37.89</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.01500000000000057</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731870714.510521</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731870716.745253</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870714.510521.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870716.745253.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>38.105</v>
+      </c>
+      <c r="L28" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.1950000000000003</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731870718.0667925</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731870718.633374</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870718.0667925.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870718.633374.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="L29" t="n">
+        <v>38.29</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731870718.6483617</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731870718.9674728</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870718.6483617.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870718.9674728.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>38.29</v>
+      </c>
+      <c r="L30" t="n">
+        <v>38.34</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.05000000000000426</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731870719.87419</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1731870720.603673</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870719.87419.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870720.603673.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>38.34</v>
+      </c>
+      <c r="L31" t="n">
+        <v>38.315</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.02500000000000568</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731870720.6466546</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731870720.7172148</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870720.6466546.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870720.7172148.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>38.355</v>
+      </c>
+      <c r="L32" t="n">
+        <v>38.365</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.01000000000000512</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731870721.6591954</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1731870723.122429</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870721.6591954.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870723.122429.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>38.165</v>
+      </c>
+      <c r="L33" t="n">
+        <v>38.195</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731870723.821902</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1731870724.1071477</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870723.821902.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870724.1071477.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>38.12</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731870724.2053957</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731870724.6736193</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870724.2053957.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870724.6736193.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>38.075</v>
+      </c>
+      <c r="L35" t="n">
+        <v>38.13</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.05499999999999972</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731870725.5005856</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731870729.8728466</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870725.5005856.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870729.8728466.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="L36" t="n">
+        <v>38.395</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.1750000000000043</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731870729.887805</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731870729.9295747</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870729.887805.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870729.9295747.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>38.395</v>
+      </c>
+      <c r="L37" t="n">
+        <v>38.395</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731870730.0156286</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731870731.9422226</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870730.0156286.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870731.9422226.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1233.4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1230.4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731870733.8388894</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1731870734.2870324</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870733.8388894.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870734.2870324.png</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1227</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1231</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731870734.9713466</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1731870736.3336716</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870734.9713466.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870736.3336716.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1238.2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1236</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.200000000000045</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731870736.690233</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1731870738.0215557</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870736.690233.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870738.0215557.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1235.8</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1234.4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-1.399999999999864</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731870738.2907026</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1731870739.765273</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870738.2907026.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870739.765273.png</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1235.4</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1236.4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731870741.0001695</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1731870743.3646986</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870741.0001695.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870743.3646986.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1233.2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1221</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-12.20000000000005</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.9900000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731870743.8458898</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731870744.7451677</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870743.8458898.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870744.7451677.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1219</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1218.4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.5999999999999091</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731870745.5057945</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731870748.5466888</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870745.5057945.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870748.5466888.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1222</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1228.6</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-6.599999999999909</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731870749.2604795</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870749.2604795.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1233.8</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1233.2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731870749.8643875</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1731870753.402078</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870749.8643875.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870753.402078.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>80.89</v>
+      </c>
+      <c r="L47" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731870754.5106347</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731870756.2554877</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870754.5106347.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870756.2554877.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>81.23999999999999</v>
+      </c>
+      <c r="L48" t="n">
+        <v>81.05</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1731870756.9743478</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1731870758.051179</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870756.9743478.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870758.051179.png</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>80.93000000000001</v>
+      </c>
+      <c r="L49" t="n">
+        <v>81.06</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.1299999999999955</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1731870758.5800114</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1731870759.289225</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870758.5800114.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870759.289225.png</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>81.12</v>
+      </c>
+      <c r="L50" t="n">
+        <v>81.05</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1731870760.0833962</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1731870763.2873595</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870760.0833962.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870763.2873595.png</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>81</v>
+      </c>
+      <c r="L51" t="n">
+        <v>80.36</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.6400000000000006</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1731870763.7241302</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1731870763.9060338</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870763.7241302.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870763.9060338.png</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>80.20999999999999</v>
+      </c>
+      <c r="L52" t="n">
+        <v>80.18000000000001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.02999999999998693</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1731870765.119353</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870765.119353.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>80.37</v>
+      </c>
+      <c r="L53" t="n">
+        <v>80.79000000000001</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.4200000000000017</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1731870769.3614597</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1731870771.1784341</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870769.3614597.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870771.1784341.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>14.187</v>
+      </c>
+      <c r="L54" t="n">
+        <v>14.139</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.04800000000000004</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1731870771.6820598</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1731870774.7357035</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870771.6820598.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870774.7357035.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>14.237</v>
+      </c>
+      <c r="L55" t="n">
+        <v>14.249</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.01200000000000045</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1731870776.099024</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1731870777.7524974</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870776.099024.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870777.7524974.png</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>14.218</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.01800000000000068</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1731870777.9627652</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1731870778.2926056</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870777.9627652.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870778.2926056.png</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>14.223</v>
+      </c>
+      <c r="L57" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.02300000000000146</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1731870779.4376953</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1731870779.8822258</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870779.4376953.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870779.8822258.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>14.248</v>
+      </c>
+      <c r="L58" t="n">
+        <v>14.217</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.03099999999999881</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1731870780.0580127</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1731870780.9652004</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870780.0580127.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870780.9652004.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>14.264</v>
+      </c>
+      <c r="L59" t="n">
+        <v>14.246</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.01799999999999891</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1731870782.2222373</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1731870783.479912</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870782.2222373.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870783.479912.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>14.195</v>
+      </c>
+      <c r="L60" t="n">
+        <v>14.226</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.03100000000000058</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1731870786.7525077</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1731870788.1053517</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870786.7525077.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870788.1053517.png</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>14.229</v>
+      </c>
+      <c r="L61" t="n">
+        <v>14.195</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.03399999999999892</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1731870788.7573853</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870788.7573853.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>14.281</v>
+      </c>
+      <c r="L62" t="n">
+        <v>14.369</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.08799999999999919</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1731870792.393983</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1731870793.0642042</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870792.393983.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870793.0642042.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>104.09</v>
+      </c>
+      <c r="L63" t="n">
+        <v>104.32</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.2299999999999898</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1731870794.6339755</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1731870797.368757</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870794.6339755.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870797.368757.png</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>104.67</v>
+      </c>
+      <c r="L64" t="n">
+        <v>105.28</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.6099999999999994</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1731870798.6266878</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1731870800.3002431</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870798.6266878.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870800.3002431.png</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>105.38</v>
+      </c>
+      <c r="L65" t="n">
+        <v>105.67</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.2900000000000063</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1731870800.792483</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1731870802.9114268</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870800.792483.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870802.9114268.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="L66" t="n">
+        <v>105.36</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.2399999999999949</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1731870804.0110233</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1731870805.4462485</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870804.0110233.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870805.4462485.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="L67" t="n">
+        <v>105</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1731870805.4933457</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1731870806.5658815</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870805.4933457.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870806.5658815.png</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>105</v>
+      </c>
+      <c r="L68" t="n">
+        <v>104.99</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.01000000000000512</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1731870807.1382236</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1731870807.9632292</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870807.1382236.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870807.9632292.png</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>105.56</v>
+      </c>
+      <c r="L69" t="n">
+        <v>105.15</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.4099999999999966</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1731870808.9825377</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870808.9825377.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="L70" t="n">
+        <v>106.15</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.4500000000000028</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1731870810.981381</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1731870812.709861</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870810.981381.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870812.709861.png</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>347.84</v>
+      </c>
+      <c r="L71" t="n">
+        <v>347.89</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.05000000000001137</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1731870812.8614228</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1731870817.933003</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870812.8614228.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870817.933003.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>348.22</v>
+      </c>
+      <c r="L72" t="n">
+        <v>351.32</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-3.099999999999966</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1731870818.0432167</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1731870818.3016825</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870818.0432167.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870818.3016825.png</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="L73" t="n">
+        <v>351.39</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.2100000000000364</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1731870818.744354</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1731870819.1127732</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870818.744354.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870819.1127732.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>351.18</v>
+      </c>
+      <c r="L74" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5699999999999932</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1731870819.1557195</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1731870819.4891224</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870819.1557195.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870819.4891224.png</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>351.88</v>
+      </c>
+      <c r="L75" t="n">
+        <v>351.56</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.3199999999999932</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1731870819.9915507</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1731870820.349931</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870819.9915507.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870820.349931.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>351.61</v>
+      </c>
+      <c r="L76" t="n">
+        <v>351.64</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.02999999999997272</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1731870821.7363846</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1731870821.9938245</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870821.7363846.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870821.9938245.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>351.53</v>
+      </c>
+      <c r="L77" t="n">
+        <v>351.44</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.08999999999997499</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1731870822.1517518</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1731870822.1980731</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870822.1517518.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870822.1980731.png</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>351.52</v>
+      </c>
+      <c r="L78" t="n">
+        <v>351.53</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.009999999999990905</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1731870822.55015</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1731870827.6804993</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870822.55015.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870827.6804993.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>351.23</v>
+      </c>
+      <c r="L79" t="n">
+        <v>350.6</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.6299999999999955</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1731870827.6964583</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1731870828.1819282</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870827.6964583.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870828.1819282.png</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>350.6</v>
+      </c>
+      <c r="L80" t="n">
+        <v>350.25</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.3500000000000227</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1731870829.2187705</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870829.2187705.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="L81" t="n">
+        <v>351.71</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.2099999999999795</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1731702082.0204172</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702082.0204172.png</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1731870832.6931627</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1731870834.6116934</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870832.6931627.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870834.6116934.png</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>2780.75</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2771.75</v>
+      </c>
+      <c r="M82" t="n">
+        <v>9</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1731870835.6466804</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1731870838.8434803</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870835.6466804.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870838.8434803.png</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>2781.9</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2787.4</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1731870840.041355</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1731870841.456116</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870840.041355.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870841.456116.png</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>2785.2</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2789.2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1731870841.7076027</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1731870842.189582</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870841.7076027.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870842.189582.png</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>2791.2</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2787.5</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3.699999999999818</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1731870843.5139441</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1731870846.458364</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870843.5139441.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870846.458364.png</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>2784.2</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2781</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-3.199999999999818</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1731870846.99329</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1731870847.8905256</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870846.99329.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870847.8905256.png</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>2774.75</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2779</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1731870849.323141</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870849.323141.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>2785.75</v>
       </c>
-      <c r="J9" t="n">
-        <v>2785.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
+      <c r="L88" t="n">
+        <v>2795.2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-9.449999999999818</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1731870855.1396344</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1731870856.8693585</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870855.1396344.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870856.8693585.png</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>592.6</v>
+      </c>
+      <c r="L89" t="n">
+        <v>593.7</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1731870856.987129</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1731870859.8377414</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870856.987129.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870859.8377414.png</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>595</v>
+      </c>
+      <c r="L90" t="n">
+        <v>595.6</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1731870860.8116682</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1731870861.4479024</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870860.8116682.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870861.4479024.png</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>596.8</v>
+      </c>
+      <c r="L91" t="n">
+        <v>595.3</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1731870861.7439644</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1731870863.2243447</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870861.7439644.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870863.2243447.png</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>593.9</v>
+      </c>
+      <c r="L92" t="n">
+        <v>591.2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-2.699999999999932</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1731870863.2403035</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1731870863.311489</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870863.2403035.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870863.311489.png</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>591.2</v>
+      </c>
+      <c r="L93" t="n">
+        <v>591.7</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1731870863.4406765</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1731870865.0804794</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870863.4406765.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870865.0804794.png</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>590.2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>591</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1731870866.5457656</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1731870867.405337</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870866.5457656.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870867.405337.png</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>588.7</v>
+      </c>
+      <c r="L95" t="n">
+        <v>589.8</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.099999999999909</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1731870869.0343704</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1731870869.3852854</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870869.0343704.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870869.3852854.png</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>589.9</v>
+      </c>
+      <c r="L96" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1731870871.6844244</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870871.6844244.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>594</v>
+      </c>
+      <c r="L97" t="n">
+        <v>594.6</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
@@ -902,7 +6000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,42 +6043,284 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.25</v>
+        <v>-0.1299999999999955</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>1.75</v>
+        <v>-0.01083333333333295</v>
       </c>
       <c r="E2" t="n">
-        <v>0.43</v>
+        <v>-0.34</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-2.42999999999995</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.2209090909090864</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1029999999999998</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01144444444444442</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-11.99999999999977</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.333333333333308</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.9700000000000002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-3.100000000000136</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.3444444444444596</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.8400000000000176</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.1050000000000022</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.800000000000182</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.400000000000026</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09000000000000002</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.7000000000000455</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.1000000000000065</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.7599999999999909</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.1085714285714273</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.9400000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11.00000000000023</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.833333333333371</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.069999999999993</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.2139999999999986</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
